--- a/Structural/Data Model/OD.xlsx
+++ b/Structural/Data Model/OD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SE_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\UberSEA\Structural\Data Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>0-10</t>
-  </si>
-  <si>
-    <t>4000 Rls</t>
   </si>
   <si>
     <t>12231</t>
@@ -619,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +867,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -919,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -942,18 +939,18 @@
         <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -964,39 +961,39 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="H14" s="8">
         <v>42990</v>
       </c>
     </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="B16" s="9" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -1019,7 +1016,7 @@
     </row>
     <row r="17" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>10</v>
@@ -1042,16 +1039,16 @@
     </row>
     <row r="18" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>21</v>
@@ -1074,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>21</v>
@@ -1083,21 +1080,21 @@
         <v>24</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>21</v>
@@ -1107,29 +1104,6 @@
       </c>
       <c r="H20" s="9" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
